--- a/data/trans_orig/P78DS4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0A9131-576C-4428-93EB-95C2ED408747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42457A23-783A-4666-9349-6F97B85B1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28A2013C-859F-4754-AB4A-640DF224D6A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483BDD63-7DA7-420B-884B-3F6FCF9E4245}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -161,7 +161,7 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -182,37 +182,31 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,26%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -221,19 +215,22 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -242,13 +239,13 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,59%</t>
+    <t>99,64%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -275,13 +272,16 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,09%</t>
+    <t>0,15%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
     <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0837425-1DE4-4050-8EFF-AF55889B14B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46612A5F-C213-4B4C-BAAE-1DBB953BFB29}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>22</v>
@@ -1972,10 +1972,10 @@
         <v>718295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>20</v>
@@ -1987,10 +1987,10 @@
         <v>1420918</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>20</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2091,13 +2091,13 @@
         <v>637</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2133,22 +2133,22 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2178,13 +2178,13 @@
         <v>696</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2193,13 +2193,13 @@
         <v>696</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2235,22 +2235,22 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -2280,10 +2280,10 @@
         <v>562952</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>20</v>
@@ -2295,10 +2295,10 @@
         <v>1131626</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>20</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2375,37 +2375,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,37 +2426,37 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,37 +2477,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,37 +2528,37 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2576,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>22</v>
@@ -2591,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>22</v>
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>22</v>
@@ -2683,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -2692,13 +2692,13 @@
         <v>637</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>637</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
@@ -2734,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -2743,13 +2743,13 @@
         <v>1617</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -2758,13 +2758,13 @@
         <v>1617</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>696</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
@@ -2809,7 +2809,7 @@
         <v>696</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
@@ -2836,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -2845,13 +2845,13 @@
         <v>729</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -2860,13 +2860,13 @@
         <v>729</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>22</v>
@@ -2896,10 +2896,10 @@
         <v>3651923</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>82</v>
@@ -2914,7 +2914,7 @@
         <v>83</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/P78DS4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42457A23-783A-4666-9349-6F97B85B1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F8318E-3629-4A41-8BF7-6236E1661F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483BDD63-7DA7-420B-884B-3F6FCF9E4245}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E6AF022-5EBB-4095-A665-AC5AF352B50C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46612A5F-C213-4B4C-BAAE-1DBB953BFB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600C0671-5D94-42B0-B488-402D0699E4B2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
